--- a/свалка/отчет по движению денег_1572702317.xlsx
+++ b/свалка/отчет по движению денег_1572702317.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="отчет по движению дс" sheetId="1" r:id="rId1"/>
@@ -1708,7 +1708,7 @@
   </sheetPr>
   <dimension ref="A1:Z69"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -3337,8 +3337,8 @@
   </sheetPr>
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4002,7 +4002,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4583,7 +4583,7 @@
   </sheetPr>
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
